--- a/data/extracted_data/raw/Kim_etal_2017_Fig1.xlsx
+++ b/data/extracted_data/raw/Kim_etal_2017_Fig1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24B72EE-544A-104D-82AC-5D653C19F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330C649-03E1-C642-A91E-65C2EE6E81EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="5700" windowWidth="25240" windowHeight="13940" xr2:uid="{BFE43A5B-B95F-8741-A7BB-C8FF1F0F619E}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>species</t>
   </si>
   <si>
-    <t>phase</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -40,20 +37,23 @@
     <t>Crassostrea gigas</t>
   </si>
   <si>
-    <t>exposure</t>
+    <t>Mytilus edulis</t>
   </si>
   <si>
-    <t>depuration</t>
+    <t>Figure 1A</t>
   </si>
   <si>
-    <t>Mytilus edulis</t>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Figure 1B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +184,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,8 +537,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,569 +917,578 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0407C8E9-440D-614F-8927-40DB500E8E66}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>0.1</v>
       </c>
-      <c r="E2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.9801980198019798E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>2.3762376237623801E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>1.2999999999999999E-2</v>
+        <v>2.3762376237623801E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1.9801980198019798E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>0.1</v>
       </c>
-      <c r="E6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
       <c r="D7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>8.9999999999999993E-3</v>
+        <v>1.5841584158415899E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>1.7999999999999999E-2</v>
+        <v>-1.9801980198019801E-4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>2.3E-2</v>
+        <v>-1.9801980198019801E-4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>5.0000000000000001E-3</v>
+        <v>2.1782178217821802E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1.2E-2</v>
+        <v>2.3762376237623801E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>2.3E-2</v>
+        <v>3.1683168316831698E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>2.9000000000000001E-2</v>
+        <v>1.0099009900990099E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>5.4999999999999997E-3</v>
+        <v>1.08910891089108E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>1.4E-2</v>
+        <v>5.7425742574257399E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
+        <v>2.1782178217821802E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>3.5000000000000003E-2</v>
+        <v>1.38613861386139E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>4.7999999999999996E-3</v>
+        <v>8.3168316831683207E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1.2999999999999999E-2</v>
+        <v>1.66336633663366E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1.9207920792079201E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
         <v>7</v>
       </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
       <c r="E21">
-        <v>2.5000000000000001E-2</v>
+        <v>2.91089108910891E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>4.0000000000000001E-3</v>
+        <v>2.2178217821782101E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>1.26732673267326E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>1.9E-2</v>
+        <v>1.2079207920792E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>2.1000000000000001E-2</v>
+        <v>7.9207920792079192E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>3.0000000000000001E-3</v>
+        <v>1.08910891089108E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>7.0000000000000001E-3</v>
+        <v>1.8019801980198001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>2.91089108910891E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
       <c r="E29">
-        <v>1.7000000000000001E-2</v>
+        <v>3.7029702970297E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>2.5000000000000001E-3</v>
+        <v>2.1188118811881099E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>6.0000000000000001E-3</v>
+        <v>2.1386138613861301E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>1.7029702970297E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
         <v>14</v>
       </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <v>20</v>
-      </c>
       <c r="E33">
-        <v>1.4E-2</v>
+        <v>1.1089108910891E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1479,16 +1496,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D34">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2E-3</v>
+        <v>1.9704433497536001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1496,16 +1513,16 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1674876847290699E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1513,16 +1530,16 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>8.9999999999999993E-3</v>
+        <v>3.54679802955665E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1530,16 +1547,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>1.2999999999999999E-2</v>
+        <v>4.3349753694581199E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1547,16 +1564,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D38">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>3.0000000000000001E-3</v>
+        <v>3.54679802955665E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1564,16 +1581,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>6.0000000000000001E-3</v>
+        <v>1.9704433497536801E-3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1581,16 +1598,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>1.7000000000000001E-2</v>
+        <v>1.57635467980293E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1598,16 +1615,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1615,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3349753694581199E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1632,16 +1649,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>8.0000000000000002E-3</v>
+        <v>2.75862068965518E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1649,16 +1666,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>2.3E-2</v>
+        <v>6.5024630541871903E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1666,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>3.2000000000000001E-2</v>
+        <v>1.1034482758620699E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1683,16 +1700,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>5.0000000000000001E-3</v>
+        <v>8.8669950738916297E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1700,16 +1717,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>0.01</v>
+        <v>7.2906403940886698E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1717,16 +1734,16 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>2.8000000000000001E-2</v>
+        <v>4.3349753694581199E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1734,16 +1751,16 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>3.6999999999999998E-2</v>
+        <v>5.3201970443349702E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1751,16 +1768,16 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>4.1999999999999997E-3</v>
+        <v>5.3201970443349702E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1768,16 +1785,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>8.0000000000000002E-3</v>
+        <v>9.0640394088670004E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1785,16 +1802,16 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>0.02</v>
+        <v>1.8522167487684701E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1802,16 +1819,16 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
         <v>7</v>
       </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>20</v>
-      </c>
       <c r="E53">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5221674876847198E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1819,16 +1836,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5615763546797999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,16 +1853,16 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>6.0000000000000001E-3</v>
+        <v>2.2463054187192098E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1853,16 +1870,16 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>1.4E-2</v>
+        <v>1.39901477832512E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1870,16 +1887,16 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>1.9E-2</v>
+        <v>1.00492610837438E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,16 +1904,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>2E-3</v>
+        <v>9.2610837438423608E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1904,16 +1921,16 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4187192118226499E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1921,16 +1938,16 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>0.01</v>
+        <v>2.4039408866994998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,16 +1955,16 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
         <v>7</v>
       </c>
-      <c r="C61">
-        <v>12</v>
-      </c>
-      <c r="D61">
-        <v>20</v>
-      </c>
       <c r="E61">
-        <v>1.4E-2</v>
+        <v>3.2512315270935899E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1955,16 +1972,16 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>1.5E-3</v>
+        <v>3.6847290640394E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,16 +1989,16 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5615763546797999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1989,16 +2006,16 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>7.0000000000000001E-3</v>
+        <v>1.3201970443349699E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2006,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
         <v>14</v>
       </c>
-      <c r="D65">
-        <v>20</v>
-      </c>
       <c r="E65">
-        <v>0.01</v>
+        <v>1.51724137931034E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/extracted_data/raw/Kim_etal_2017_Fig1.xlsx
+++ b/data/extracted_data/raw/Kim_etal_2017_Fig1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330C649-03E1-C642-A91E-65C2EE6E81EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD552764-72D1-104A-BC58-C1E3C9C76E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="5700" windowWidth="25240" windowHeight="13940" xr2:uid="{BFE43A5B-B95F-8741-A7BB-C8FF1F0F619E}"/>
   </bookViews>
